--- a/src/main/resources/TestData2.xlsx
+++ b/src/main/resources/TestData2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SREELAKSHMI\eclipse-workspace\QALegendBilling\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SREELAKSHMI\eclipse-workspace\QALegend\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF4C06C-46E0-4870-9171-BE4C015E08BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56C5D1D-C442-4B46-8FB6-CB190A76292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>User name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Useraccount</t>
   </si>
   <si>
-    <t>Sreelakshmi S</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -123,6 +120,15 @@
   </si>
   <si>
     <t>No matching records found</t>
+  </si>
+  <si>
+    <t>sreelakme</t>
+  </si>
+  <si>
+    <t>sreelakme@123</t>
+  </si>
+  <si>
+    <t>Sree lakme</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,13 +500,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{80C402D0-B286-41CD-A606-ED67A02BA7F7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -540,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,13 +551,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CD269909-263E-43A9-BEA9-AAF994B08EC7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -575,10 +575,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -616,12 +616,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -661,50 +661,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,20 +712,20 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +761,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
